--- a/Results/Calculation/lda2vec-partial-ner-elmo.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner-elmo.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="G2">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="H2">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,16 +461,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>0.6899999999999999</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>299</v>
@@ -499,19 +499,19 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>0.93</v>
       </c>
       <c r="G4">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H4">
         <v>0.88</v>
       </c>
       <c r="I4">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
